--- a/html/Børnejounalsystemer_excel.XLSX
+++ b/html/Børnejounalsystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD6ED0-6E26-41CB-ABA6-31D259F57AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A96880-59DF-4383-A8AD-FFDA8F61D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Børnejounalsystemer">'Opdateret d. 12-05-2025'!$A$1:$F$62</definedName>
+    <definedName name="Børnejounalsystemer">'Opdateret d. 16-05-2025'!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -73,7 +73,7 @@
     <t>CareCommunication</t>
   </si>
   <si>
-    <t>CareCommunication (4.0.0)</t>
+    <t>CareCommunication (4.0)</t>
   </si>
   <si>
     <t>Tester</t>

--- a/html/Børnejounalsystemer_excel.XLSX
+++ b/html/Børnejounalsystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A96880-59DF-4383-A8AD-FFDA8F61D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36384E1-2F9C-43C1-82B3-C0AE9F9B40D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Børnejounalsystemer">'Opdateret d. 16-05-2025'!$A$1:$F$62</definedName>
+    <definedName name="Børnejounalsystemer">'Opdateret d. 02-12-2025'!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1332,7 +1332,7 @@
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">

--- a/html/Børnejounalsystemer_excel.XLSX
+++ b/html/Børnejounalsystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36384E1-2F9C-43C1-82B3-C0AE9F9B40D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655C85E-12FB-4ED9-AC63-7438F18D2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Børnejounalsystemer_excel.XLSX
+++ b/html/Børnejounalsystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655C85E-12FB-4ED9-AC63-7438F18D2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF4028-D2A2-47CC-BA95-C5D5A24CDE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Børnejounalsystemer">'Opdateret d. 02-12-2025'!$A$1:$F$62</definedName>
+    <definedName name="Børnejounalsystemer">'Opdateret d. 05-12-2025'!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -661,9 +661,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -739,7 +739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -781,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -829,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -860,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -995,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>95</v>
       </c>

--- a/html/Børnejounalsystemer_excel.XLSX
+++ b/html/Børnejounalsystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF4028-D2A2-47CC-BA95-C5D5A24CDE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF1D28C-3389-4F1F-A6CE-41818F8CE03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Børnejounalsystemer">'Opdateret d. 05-12-2025'!$A$1:$F$62</definedName>
+    <definedName name="Børnejounalsystemer">'Opdateret d. 19-12-2025'!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -661,9 +661,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -739,7 +739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -781,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -829,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -860,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -995,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>95</v>
       </c>
